--- a/data/Sheet1.xlsx
+++ b/data/Sheet1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ecosoftcorp-my.sharepoint.com/personal/maksym_protsak_ecosoft_com/Documents/Work 01 07 2021/myPy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ecosoftcorp-my.sharepoint.com/personal/maksym_protsak_ecosoft_com/Documents/Work 01 07 2021/myPy/myPythonFolder/stickerMacker V1.5 - Макет стікерів пакування ROBUST змінені/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{2CA39FFA-6E5C-472F-9BE3-DF061E29CECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C8A4985-DC7B-41F9-85FF-7E56B17F22A5}"/>
+  <xr:revisionPtr revIDLastSave="122" documentId="13_ncr:1_{EA03E83C-CC03-414D-B8CD-0F5AF913FC2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F616731-BAB7-4C2F-B696-55AF8836F1E1}"/>
   <bookViews>
-    <workbookView xWindow="12192" yWindow="2412" windowWidth="17280" windowHeight="8964" xr2:uid="{51EBB5AD-515B-421D-A46C-2E458627F63B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51EBB5AD-515B-421D-A46C-2E458627F63B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="238">
   <si>
     <t>Код</t>
   </si>
@@ -64,628 +64,691 @@
     <t>Опис (RU)</t>
   </si>
   <si>
+    <t>MO5000</t>
+  </si>
+  <si>
+    <t>1 × 220…240</t>
+  </si>
+  <si>
+    <t>ECOSOFT MO5000 COMMERCIAL REVERSE OSMOSIS SYSTEM</t>
+  </si>
+  <si>
+    <t>КОМЕРЦІЙНА СИСТЕМА ЗВОРОТНОГО ОСМОСУ ECOSOFT MO5000</t>
+  </si>
+  <si>
+    <t>КОММЕРЧЕСКАЯ СИСТЕМА ОБРАТНОГО ОСМОСА ECOSOFT MO5000</t>
+  </si>
+  <si>
+    <t>M5VCTF0</t>
+  </si>
+  <si>
+    <t>M10VCTF</t>
+  </si>
+  <si>
+    <t>MO10000</t>
+  </si>
+  <si>
+    <t>ECOSOFT MO10000 COMMERCIAL REVERSE OSMOSIS SYSTEM</t>
+  </si>
+  <si>
+    <t>КОМЕРЦІЙНА СИСТЕМА ЗВОРОТНОГО ОСМОСУ ECOSOFT MO10000</t>
+  </si>
+  <si>
+    <t>КОММЕРЧЕСКАЯ СИСТЕМА ОБРАТНОГО ОСМОСА ECOSOFT MO10000</t>
+  </si>
+  <si>
+    <t>M10VCTF0</t>
+  </si>
+  <si>
+    <t>MO5000TP5</t>
+  </si>
+  <si>
+    <t>MO10000TP5</t>
+  </si>
+  <si>
+    <t>M6VCTFWE0UN</t>
+  </si>
+  <si>
+    <t>MO6500</t>
+  </si>
+  <si>
+    <t>ECOSOFT MO6500 COMMERCIAL REVERSE OSMOSIS SYSTEM</t>
+  </si>
+  <si>
+    <t>КОМЕРЦІЙНА СИСТЕМА ЗВОРОТНОГО ОСМОСУ ECOSOFT MO6500</t>
+  </si>
+  <si>
+    <t>КОММЕРЧЕСКАЯ СИСТЕМА ОБРАТНОГО ОСМОСА ECOSOFT MO6500</t>
+  </si>
+  <si>
+    <t>M6VCTFWEUN</t>
+  </si>
+  <si>
+    <t>M10VCTFWE0UN</t>
+  </si>
+  <si>
+    <t>MO12000</t>
+  </si>
+  <si>
+    <t>ECOSOFT MO12000 COMMERCIAL REVERSE OSMOSIS SYSTEM</t>
+  </si>
+  <si>
+    <t>КОМЕРЦІЙНА СИСТЕМА ЗВОРОТНОГО ОСМОСУ ECOSOFT MO12000</t>
+  </si>
+  <si>
+    <t>КОММЕРЧЕСКАЯ СИСТЕМА ОБРАТНОГО ОСМОСА ECOSOFT MO12000</t>
+  </si>
+  <si>
+    <t>M10VCTFWEUN</t>
+  </si>
+  <si>
+    <t>M24VCTFWE0UN</t>
+  </si>
+  <si>
+    <t>MO24000</t>
+  </si>
+  <si>
+    <t>ECOSOFT MO24000 COMMERCIAL REVERSE OSMOSIS SYSTEM</t>
+  </si>
+  <si>
+    <t>КОМЕРЦІЙНА СИСТЕМА ЗВОРОТНОГО ОСМОСУ ECOSOFT MO24000</t>
+  </si>
+  <si>
+    <t>КОММЕРЧЕСКАЯ СИСТЕМА ОБРАТНОГО ОСМОСА ECOSOFT MO24000</t>
+  </si>
+  <si>
+    <t>M24VCTFWEUN</t>
+  </si>
+  <si>
+    <t>M36VCTFWE0UN</t>
+  </si>
+  <si>
+    <t>MO36000</t>
+  </si>
+  <si>
+    <t>ECOSOFT MO36000 COMMERCIAL REVERSE OSMOSIS SYSTEM</t>
+  </si>
+  <si>
+    <t>КОМЕРЦІЙНА СИСТЕМА ЗВОРОТНОГО ОСМОСУ ECOSOFT MO36000</t>
+  </si>
+  <si>
+    <t>КОММЕРЧЕСКАЯ СИСТЕМА ОБРАТНОГО ОСМОСА ECOSOFT MO36000</t>
+  </si>
+  <si>
+    <t>M36VCTFWEUN</t>
+  </si>
+  <si>
+    <t>M6VCOTFWE0UN</t>
+  </si>
+  <si>
+    <t>MO6500 Econnect</t>
+  </si>
+  <si>
+    <t>ECOSOFT MO6500 ECONNECT COMMERCIAL REVERSE OSMOSIS SYSTEM</t>
+  </si>
+  <si>
+    <t>КОМЕРЦІЙНА СИСТЕМА ЗВОРОТНОГО ОСМОСУ ECOSOFT MO6500 ECONNECT</t>
+  </si>
+  <si>
+    <t>КОММЕРЧЕСКАЯ СИСТЕМА ОБРАТНОГО ОСМОСА ECOSOFT MO6500 ECONNECT</t>
+  </si>
+  <si>
+    <t>M6VCOTFWEUN</t>
+  </si>
+  <si>
+    <t>M10VCOTFWE0UN</t>
+  </si>
+  <si>
+    <t>MO12000 Econnect</t>
+  </si>
+  <si>
+    <t>ECOSOFT MO12000 ECONNECT COMMERCIAL REVERSE OSMOSIS SYSTEM</t>
+  </si>
+  <si>
+    <t>КОМЕРЦІЙНА СИСТЕМА ЗВОРОТНОГО ОСМОСУ ECOSOFT MO12000 ECONNECT</t>
+  </si>
+  <si>
+    <t>КОММЕРЧЕСКАЯ СИСТЕМА ОБРАТНОГО ОСМОСА ECOSOFT MO12000 ECONNECT</t>
+  </si>
+  <si>
+    <t>M10VCOTFWEUN</t>
+  </si>
+  <si>
+    <t>M24VCOTFWE0UN</t>
+  </si>
+  <si>
+    <t>MO24000 Econnect</t>
+  </si>
+  <si>
+    <t>ECOSOFT MO24000 ECONNECT COMMERCIAL REVERSE OSMOSIS SYSTEM</t>
+  </si>
+  <si>
+    <t>КОМЕРЦІЙНА СИСТЕМА ЗВОРОТНОГО ОСМОСУ ECOSOFT MO24000 ECONNECT</t>
+  </si>
+  <si>
+    <t>КОММЕРЧЕСКАЯ СИСТЕМА ОБРАТНОГО ОСМОСА ECOSOFT MO24000 ECONNECT</t>
+  </si>
+  <si>
+    <t>M24VCOTFWEUN</t>
+  </si>
+  <si>
+    <t>M36VCOTFWE0UN</t>
+  </si>
+  <si>
+    <t>MO36000 Econnect</t>
+  </si>
+  <si>
+    <t>ECOSOFT MO36000 ECONNECT COMMERCIAL REVERSE OSMOSIS SYSTEM</t>
+  </si>
+  <si>
+    <t>КОМЕРЦІЙНА СИСТЕМА ЗВОРОТНОГО ОСМОСУ ECOSOFT MO36000 ECONNECT</t>
+  </si>
+  <si>
+    <t>КОММЕРЧЕСКАЯ СИСТЕМА ОБРАТНОГО ОСМОСА ECOSOFT MO36000 ECONNECT</t>
+  </si>
+  <si>
+    <t>M36VCOTFWEUN</t>
+  </si>
+  <si>
+    <t>MO6500BWSS</t>
+  </si>
+  <si>
+    <t>ECOSOFT MO6500BWSS COMMERCIAL REVERSE OSMOSIS SYSTEM</t>
+  </si>
+  <si>
+    <t>КОМЕРЦІЙНА СИСТЕМА ЗВОРОТНОГО ОСМОСУ ECOSOFT MO6500BWSS</t>
+  </si>
+  <si>
+    <t>КОММЕРЧЕСКАЯ СИСТЕМА ОБРАТНОГО ОСМОСА ECOSOFT MO6500BWSS</t>
+  </si>
+  <si>
+    <t>MO11STXL</t>
+  </si>
+  <si>
+    <t>3 × 380…415</t>
+  </si>
+  <si>
+    <t>ECOSOFT MO11STXL INDUSTRIAL REVERSE OSMOSIS SYSTEM</t>
+  </si>
+  <si>
+    <t>ПРОМИСЛОВА СИСТЕМА ЗВОРОТНОГО ОСМОСУ ECOSOFT MO11STXL</t>
+  </si>
+  <si>
+    <t>ПРОМЫШЛЕННАЯ СИСТЕМА ОБРАТНОГО ОСМОСА ECOSOFT MO11STXL</t>
+  </si>
+  <si>
+    <t>MO21STXL</t>
+  </si>
+  <si>
+    <t>ECOSOFT MO21STXL INDUSTRIAL REVERSE OSMOSIS SYSTEM</t>
+  </si>
+  <si>
+    <t>ПРОМИСЛОВА СИСТЕМА ЗВОРОТНОГО ОСМОСУ ECOSOFT MO21STXL</t>
+  </si>
+  <si>
+    <t>ПРОМЫШЛЕННАЯ СИСТЕМА ОБРАТНОГО ОСМОСА ECOSOFT MO21STXL</t>
+  </si>
+  <si>
+    <t>MO31STXL</t>
+  </si>
+  <si>
+    <t>ECOSOFT MO31STXL INDUSTRIAL REVERSE OSMOSIS SYSTEM</t>
+  </si>
+  <si>
+    <t>ПРОМИСЛОВА СИСТЕМА ЗВОРОТНОГО ОСМОСУ ECOSOFT MO31STXL</t>
+  </si>
+  <si>
+    <t>ПРОМЫШЛЕННАЯ СИСТЕМА ОБРАТНОГО ОСМОСА ECOSOFT MO31STXL</t>
+  </si>
+  <si>
+    <t>MO41STXL</t>
+  </si>
+  <si>
+    <t>ECOSOFT MO41STXL INDUSTRIAL REVERSE OSMOSIS SYSTEM</t>
+  </si>
+  <si>
+    <t>ПРОМИСЛОВА СИСТЕМА ЗВОРОТНОГО ОСМОСУ ECOSOFT MO41STXL</t>
+  </si>
+  <si>
+    <t>ПРОМЫШЛЕННАЯ СИСТЕМА ОБРАТНОГО ОСМОСА ECOSOFT MO41STXL</t>
+  </si>
+  <si>
+    <t>MO42STXL</t>
+  </si>
+  <si>
+    <t>ECOSOFT MO42STXL INDUSTRIAL REVERSE OSMOSIS SYSTEM</t>
+  </si>
+  <si>
+    <t>ПРОМИСЛОВА СИСТЕМА ЗВОРОТНОГО ОСМОСУ ECOSOFT MO42STXL</t>
+  </si>
+  <si>
+    <t>ПРОМЫШЛЕННАЯ СИСТЕМА ОБРАТНОГО ОСМОСА ECOSOFT MO42STXL</t>
+  </si>
+  <si>
+    <t>MO11XLWE0UN</t>
+  </si>
+  <si>
+    <t>MO1</t>
+  </si>
+  <si>
+    <t>ECOSOFT MO1 INDUSTRIAL REVERSE OSMOSIS SYSTEM</t>
+  </si>
+  <si>
+    <t>ПРОМИСЛОВА СИСТЕМА ЗВОРОТНОГО ОСМОСУ ECOSOFT MO1</t>
+  </si>
+  <si>
+    <t>ПРОМЫШЛЕННАЯ СИСТЕМА ОБРАТНОГО ОСМОСА ECOSOFT MO1</t>
+  </si>
+  <si>
+    <t>MO22XLWE0UN</t>
+  </si>
+  <si>
+    <t>MO2</t>
+  </si>
+  <si>
+    <t>ECOSOFT MO2 INDUSTRIAL REVERSE OSMOSIS SYSTEM</t>
+  </si>
+  <si>
+    <t>ПРОМИСЛОВА СИСТЕМА ЗВОРОТНОГО ОСМОСУ ECOSOFT MO2</t>
+  </si>
+  <si>
+    <t>ПРОМЫШЛЕННАЯ СИСТЕМА ОБРАТНОГО ОСМОСА ECOSOFT MO2</t>
+  </si>
+  <si>
+    <t>MO33XLWE0UN</t>
+  </si>
+  <si>
+    <t>MO3</t>
+  </si>
+  <si>
+    <t>ECOSOFT MO3 INDUSTRIAL REVERSE OSMOSIS SYSTEM</t>
+  </si>
+  <si>
+    <t>ПРОМИСЛОВА СИСТЕМА ЗВОРОТНОГО ОСМОСУ ECOSOFT MO3</t>
+  </si>
+  <si>
+    <t>ПРОМЫШЛЕННАЯ СИСТЕМА ОБРАТНОГО ОСМОСА ECOSOFT MO3</t>
+  </si>
+  <si>
+    <t>MO42XLWE0UN</t>
+  </si>
+  <si>
+    <t>MO4</t>
+  </si>
+  <si>
+    <t>ECOSOFT MO4 INDUSTRIAL REVERSE OSMOSIS SYSTEM</t>
+  </si>
+  <si>
+    <t>ПРОМИСЛОВА СИСТЕМА ЗВОРОТНОГО ОСМОСУ ECOSOFT MO4</t>
+  </si>
+  <si>
+    <t>ПРОМЫШЛЕННАЯ СИСТЕМА ОБРАТНОГО ОСМОСА ECOSOFT MO4</t>
+  </si>
+  <si>
+    <t>MO63XLWE0UN</t>
+  </si>
+  <si>
+    <t>MO6</t>
+  </si>
+  <si>
+    <t>ECOSOFT MO6 INDUSTRIAL REVERSE OSMOSIS SYSTEM</t>
+  </si>
+  <si>
+    <t>ПРОМИСЛОВА СИСТЕМА ЗВОРОТНОГО ОСМОСУ ECOSOFT MO6</t>
+  </si>
+  <si>
+    <t>ПРОМЫШЛЕННАЯ СИСТЕМА ОБРАТНОГО ОСМОСА ECOSOFT MO6</t>
+  </si>
+  <si>
+    <t>MO93XLWE0UN</t>
+  </si>
+  <si>
+    <t>MO9</t>
+  </si>
+  <si>
+    <t>ECOSOFT MO9 INDUSTRIAL REVERSE OSMOSIS SYSTEM</t>
+  </si>
+  <si>
+    <t>ПРОМИСЛОВА СИСТЕМА ЗВОРОТНОГО ОСМОСУ ECOSOFT MO9</t>
+  </si>
+  <si>
+    <t>ПРОМЫШЛЕННАЯ СИСТЕМА ОБРАТНОГО ОСМОСА ECOSOFT MO9</t>
+  </si>
+  <si>
+    <t>MO12XLWE0UN</t>
+  </si>
+  <si>
+    <t>MO12</t>
+  </si>
+  <si>
+    <t>ECOSOFT MO12 INDUSTRIAL REVERSE OSMOSIS SYSTEM</t>
+  </si>
+  <si>
+    <t>ПРОМИСЛОВА СИСТЕМА ЗВОРОТНОГО ОСМОСУ ECOSOFT MO12</t>
+  </si>
+  <si>
+    <t>ПРОМЫШЛЕННАЯ СИСТЕМА ОБРАТНОГО ОСМОСА ECOSOFT MO12</t>
+  </si>
+  <si>
+    <t>MO16XLWE0UN</t>
+  </si>
+  <si>
+    <t>MO16</t>
+  </si>
+  <si>
+    <t>ECOSOFT MO16 INDUSTRIAL REVERSE OSMOSIS SYSTEM</t>
+  </si>
+  <si>
+    <t>ПРОМИСЛОВА СИСТЕМА ЗВОРОТНОГО ОСМОСУ ECOSOFT MO16</t>
+  </si>
+  <si>
+    <t>ПРОМЫШЛЕННАЯ СИСТЕМА ОБРАТНОГО ОСМОСА ECOSOFT MO16</t>
+  </si>
+  <si>
+    <t>MO20XLWE0UN</t>
+  </si>
+  <si>
+    <t>MO20</t>
+  </si>
+  <si>
+    <t>ECOSOFT MO20 INDUSTRIAL REVERSE OSMOSIS SYSTEM</t>
+  </si>
+  <si>
+    <t>ПРОМИСЛОВА СИСТЕМА ЗВОРОТНОГО ОСМОСУ ECOSOFT MO20</t>
+  </si>
+  <si>
+    <t>ПРОМЫШЛЕННАЯ СИСТЕМА ОБРАТНОГО ОСМОСА ECOSOFT MO20</t>
+  </si>
+  <si>
+    <t>MO24XLWE0UN</t>
+  </si>
+  <si>
+    <t>MO24</t>
+  </si>
+  <si>
+    <t>ECOSOFT MO24 INDUSTRIAL REVERSE OSMOSIS SYSTEM</t>
+  </si>
+  <si>
+    <t>ПРОМИСЛОВА СИСТЕМА ЗВОРОТНОГО ОСМОСУ ECOSOFT MO24</t>
+  </si>
+  <si>
+    <t>ПРОМЫШЛЕННАЯ СИСТЕМА ОБРАТНОГО ОСМОСА ECOSOFT MO24</t>
+  </si>
+  <si>
+    <t>MO30XLWE0UN</t>
+  </si>
+  <si>
+    <t>MO30</t>
+  </si>
+  <si>
+    <t>ECOSOFT MO30 INDUSTRIAL REVERSE OSMOSIS SYSTEM</t>
+  </si>
+  <si>
+    <t>ПРОМИСЛОВА СИСТЕМА ЗВОРОТНОГО ОСМОСУ ECOSOFT MO30</t>
+  </si>
+  <si>
+    <t>ПРОМЫШЛЕННАЯ СИСТЕМА ОБРАТНОГО ОСМОСА ECOSOFT MO30</t>
+  </si>
+  <si>
+    <t>MO36XLWE0UN</t>
+  </si>
+  <si>
+    <t>MO36</t>
+  </si>
+  <si>
+    <t>ECOSOFT MO36 INDUSTRIAL REVERSE OSMOSIS SYSTEM</t>
+  </si>
+  <si>
+    <t>ПРОМИСЛОВА СИСТЕМА ЗВОРОТНОГО ОСМОСУ ECOSOFT MO36</t>
+  </si>
+  <si>
+    <t>ПРОМЫШЛЕННАЯ СИСТЕМА ОБРАТНОГО ОСМОСА ECOSOFT MO36</t>
+  </si>
+  <si>
+    <t>MO48XLWE0UN</t>
+  </si>
+  <si>
+    <t>MO48</t>
+  </si>
+  <si>
+    <t>ECOSOFT MO48 INDUSTRIAL REVERSE OSMOSIS SYSTEM</t>
+  </si>
+  <si>
+    <t>ПРОМИСЛОВА СИСТЕМА ЗВОРОТНОГО ОСМОСУ ECOSOFT MO48</t>
+  </si>
+  <si>
+    <t>ПРОМЫШЛЕННАЯ СИСТЕМА ОБРАТНОГО ОСМОСА ECOSOFT MO48</t>
+  </si>
+  <si>
+    <t>M36VCOTFWE0UNSS</t>
+  </si>
+  <si>
+    <t>MO33CONWE</t>
+  </si>
+  <si>
+    <t>MO3 Econnect</t>
+  </si>
+  <si>
+    <t>ECOSOFT MO3 ECONNECT INDUSTRIAL REVERSE OSMOSIS SYSTEM</t>
+  </si>
+  <si>
+    <t>ПРОМИСЛОВА СИСТЕМА ЗВОРОТНОГО ОСМОСУ ECOSOFT MO3 ECONNECT</t>
+  </si>
+  <si>
+    <t>ПРОМЫШЛЕННАЯ СИСТЕМА ОБРАТНОГО ОСМОСА ECOSOFT MO3 ECONNECT</t>
+  </si>
+  <si>
+    <t>MO33XLEWSS0UN</t>
+  </si>
+  <si>
+    <t>MO93XLEWSS0UN</t>
+  </si>
+  <si>
+    <t>MO1TI5</t>
+  </si>
+  <si>
+    <t>MO2TI5</t>
+  </si>
+  <si>
+    <t>MO3TI5</t>
+  </si>
+  <si>
+    <t>MO4TI5</t>
+  </si>
+  <si>
+    <t>MO6TI5</t>
+  </si>
+  <si>
+    <t>MO9TI5</t>
+  </si>
+  <si>
+    <t>MO1TISIM</t>
+  </si>
+  <si>
+    <t>MO2TISIM</t>
+  </si>
+  <si>
+    <t>MO3TISIM</t>
+  </si>
+  <si>
+    <t>MO4TISIM</t>
+  </si>
+  <si>
+    <t>MO6TISIM</t>
+  </si>
+  <si>
+    <t>MO9TISIM</t>
+  </si>
+  <si>
+    <t>ROBUST1500</t>
+  </si>
+  <si>
+    <t>ECOSOFT ROBUST 1500 REVERSE OSMOSIS FILTER</t>
+  </si>
+  <si>
+    <t>ФІЛЬТР ЗВОРОТНОГО ОСМОСУ ECOSOFT ROBUST 1500</t>
+  </si>
+  <si>
+    <t>ФИЛЬТР ОБРАТНОГО ОСМОСА ECOSOFT ROBUST 1500</t>
+  </si>
+  <si>
+    <t>ROBUST1500EC</t>
+  </si>
+  <si>
+    <t>ECOSOFT ROBUST 1500 ECONNECT REVERSE OSMOSIS FILTER</t>
+  </si>
+  <si>
+    <t>ФІЛЬТР ЗВОРОТНОГО ОСМОСУ ECOSOFT ROBUST 1500 ECONNECT</t>
+  </si>
+  <si>
+    <t>ФИЛЬТР ОБРАТНОГО ОСМОСА ECOSOFT ROBUST 1500 ECONNECT</t>
+  </si>
+  <si>
+    <t>ROBUST1500ECO</t>
+  </si>
+  <si>
+    <t>ECOSOFT ROBUST 1500 ECO REVERSE OSMOSIS FILTER</t>
+  </si>
+  <si>
+    <t>ФІЛЬТР ЗВОРОТНОГО ОСМОСУ ECOSOFT ROBUST 1500 ECO</t>
+  </si>
+  <si>
+    <t>ФИЛЬТР ОБРАТНОГО ОСМОСА ECOSOFT ROBUST 1500 ECO</t>
+  </si>
+  <si>
+    <t>ROBUSTPROB</t>
+  </si>
+  <si>
+    <t>RObust PRO</t>
+  </si>
+  <si>
+    <t>ECOSOFT ROBUST PRO REVERSE OSMOSIS FILTER</t>
+  </si>
+  <si>
+    <t>ФІЛЬТР ЗВОРОТНОГО ОСМОСУ ECOSOFT ROBUST PRO</t>
+  </si>
+  <si>
+    <t>ФИЛЬТР ОБРАТНОГО ОСМОСА ECOSOFT ROBUST PRO</t>
+  </si>
+  <si>
+    <t>ROBUSTPROBEC</t>
+  </si>
+  <si>
+    <t>ECOSOFT ROBUST PRO ECONNECT REVERSE OSMOSIS FILTER</t>
+  </si>
+  <si>
+    <t>ФІЛЬТР ЗВОРОТНОГО ОСМОСУ ECOSOFT ROBUST PRO ECONNECT</t>
+  </si>
+  <si>
+    <t>ФИЛЬТР ОБРАТНОГО ОСМОСА ECOSOFT ROBUST PRO ECONNECT</t>
+  </si>
+  <si>
+    <t>ROBUST3000</t>
+  </si>
+  <si>
+    <t>ECOSOFT ROBUST 3000 REVERSE OSMOSIS FILTER</t>
+  </si>
+  <si>
+    <t>ФІЛЬТР ЗВОРОТНОГО ОСМОСУ ECOSOFT ROBUST 3000</t>
+  </si>
+  <si>
+    <t>ФИЛЬТР ОБРАТНОГО ОСМОСА ECOSOFT ROBUST 3000</t>
+  </si>
+  <si>
+    <t>ROBUST3000EC</t>
+  </si>
+  <si>
+    <t>ECOSOFT ROBUST 3000 ECONNECT REVERSE OSMOSIS FILTER</t>
+  </si>
+  <si>
+    <t>ФІЛЬТР ЗВОРОТНОГО ОСМОСУ ECOSOFT ROBUST 3000 ECONNECT</t>
+  </si>
+  <si>
+    <t>ФИЛЬТР ОБРАТНОГО ОСМОСА ECOSOFT ROBUST 3000 ECONNECT</t>
+  </si>
+  <si>
     <t>M5VCTF</t>
   </si>
   <si>
-    <t>MO5000</t>
-  </si>
-  <si>
-    <t>1 × 220…240</t>
-  </si>
-  <si>
-    <t>ECOSOFT MO5000 COMMERCIAL REVERSE OSMOSIS SYSTEM</t>
-  </si>
-  <si>
-    <t>КОМЕРЦІЙНА СИСТЕМА ЗВОРОТНОГО ОСМОСУ ECOSOFT MO5000</t>
-  </si>
-  <si>
-    <t>КОММЕРЧЕСКАЯ СИСТЕМА ОБРАТНОГО ОСМОСА ECOSOFT MO5000</t>
-  </si>
-  <si>
-    <t>M5VCTF0</t>
-  </si>
-  <si>
-    <t>M10VCTF</t>
-  </si>
-  <si>
-    <t>MO10000</t>
-  </si>
-  <si>
-    <t>ECOSOFT MO10000 COMMERCIAL REVERSE OSMOSIS SYSTEM</t>
-  </si>
-  <si>
-    <t>КОМЕРЦІЙНА СИСТЕМА ЗВОРОТНОГО ОСМОСУ ECOSOFT MO10000</t>
-  </si>
-  <si>
-    <t>КОММЕРЧЕСКАЯ СИСТЕМА ОБРАТНОГО ОСМОСА ECOSOFT MO10000</t>
-  </si>
-  <si>
-    <t>M10VCTF0</t>
-  </si>
-  <si>
-    <t>MO5000TP5</t>
-  </si>
-  <si>
-    <t>MO10000TP5</t>
-  </si>
-  <si>
-    <t>M6VCTFWE0UN</t>
-  </si>
-  <si>
-    <t>MO6500</t>
-  </si>
-  <si>
-    <t>ECOSOFT MO6500 COMMERCIAL REVERSE OSMOSIS SYSTEM</t>
-  </si>
-  <si>
-    <t>КОМЕРЦІЙНА СИСТЕМА ЗВОРОТНОГО ОСМОСУ ECOSOFT MO6500</t>
-  </si>
-  <si>
-    <t>КОММЕРЧЕСКАЯ СИСТЕМА ОБРАТНОГО ОСМОСА ECOSOFT MO6500</t>
-  </si>
-  <si>
-    <t>M6VCTFWEUN</t>
-  </si>
-  <si>
-    <t>M10VCTFWE0UN</t>
-  </si>
-  <si>
-    <t>MO12000</t>
-  </si>
-  <si>
-    <t>ECOSOFT MO12000 COMMERCIAL REVERSE OSMOSIS SYSTEM</t>
-  </si>
-  <si>
-    <t>КОМЕРЦІЙНА СИСТЕМА ЗВОРОТНОГО ОСМОСУ ECOSOFT MO12000</t>
-  </si>
-  <si>
-    <t>КОММЕРЧЕСКАЯ СИСТЕМА ОБРАТНОГО ОСМОСА ECOSOFT MO12000</t>
-  </si>
-  <si>
-    <t>M10VCTFWEUN</t>
-  </si>
-  <si>
-    <t>M24VCTFWE0UN</t>
-  </si>
-  <si>
-    <t>MO24000</t>
-  </si>
-  <si>
-    <t>ECOSOFT MO24000 COMMERCIAL REVERSE OSMOSIS SYSTEM</t>
-  </si>
-  <si>
-    <t>КОМЕРЦІЙНА СИСТЕМА ЗВОРОТНОГО ОСМОСУ ECOSOFT MO24000</t>
-  </si>
-  <si>
-    <t>КОММЕРЧЕСКАЯ СИСТЕМА ОБРАТНОГО ОСМОСА ECOSOFT MO24000</t>
-  </si>
-  <si>
-    <t>M24VCTFWEUN</t>
-  </si>
-  <si>
-    <t>M36VCTFWE0UN</t>
-  </si>
-  <si>
-    <t>MO36000</t>
-  </si>
-  <si>
-    <t>ECOSOFT MO36000 COMMERCIAL REVERSE OSMOSIS SYSTEM</t>
-  </si>
-  <si>
-    <t>КОМЕРЦІЙНА СИСТЕМА ЗВОРОТНОГО ОСМОСУ ECOSOFT MO36000</t>
-  </si>
-  <si>
-    <t>КОММЕРЧЕСКАЯ СИСТЕМА ОБРАТНОГО ОСМОСА ECOSOFT MO36000</t>
-  </si>
-  <si>
-    <t>M36VCTFWEUN</t>
-  </si>
-  <si>
-    <t>M6VCOTFWE0UN</t>
-  </si>
-  <si>
-    <t>MO6500 Econnect</t>
-  </si>
-  <si>
-    <t>ECOSOFT MO6500 ECONNECT COMMERCIAL REVERSE OSMOSIS SYSTEM</t>
-  </si>
-  <si>
-    <t>КОМЕРЦІЙНА СИСТЕМА ЗВОРОТНОГО ОСМОСУ ECOSOFT MO6500 ECONNECT</t>
-  </si>
-  <si>
-    <t>КОММЕРЧЕСКАЯ СИСТЕМА ОБРАТНОГО ОСМОСА ECOSOFT MO6500 ECONNECT</t>
-  </si>
-  <si>
-    <t>M6VCOTFWEUN</t>
-  </si>
-  <si>
-    <t>M10VCOTFWE0UN</t>
-  </si>
-  <si>
-    <t>MO12000 Econnect</t>
-  </si>
-  <si>
-    <t>ECOSOFT MO12000 ECONNECT COMMERCIAL REVERSE OSMOSIS SYSTEM</t>
-  </si>
-  <si>
-    <t>КОМЕРЦІЙНА СИСТЕМА ЗВОРОТНОГО ОСМОСУ ECOSOFT MO12000 ECONNECT</t>
-  </si>
-  <si>
-    <t>КОММЕРЧЕСКАЯ СИСТЕМА ОБРАТНОГО ОСМОСА ECOSOFT MO12000 ECONNECT</t>
-  </si>
-  <si>
-    <t>M10VCOTFWEUN</t>
-  </si>
-  <si>
-    <t>M24VCOTFWE0UN</t>
-  </si>
-  <si>
-    <t>MO24000 Econnect</t>
-  </si>
-  <si>
-    <t>ECOSOFT MO24000 ECONNECT COMMERCIAL REVERSE OSMOSIS SYSTEM</t>
-  </si>
-  <si>
-    <t>КОМЕРЦІЙНА СИСТЕМА ЗВОРОТНОГО ОСМОСУ ECOSOFT MO24000 ECONNECT</t>
-  </si>
-  <si>
-    <t>КОММЕРЧЕСКАЯ СИСТЕМА ОБРАТНОГО ОСМОСА ECOSOFT MO24000 ECONNECT</t>
-  </si>
-  <si>
-    <t>M24VCOTFWEUN</t>
-  </si>
-  <si>
-    <t>M36VCOTFWE0UN</t>
-  </si>
-  <si>
-    <t>MO36000 Econnect</t>
-  </si>
-  <si>
-    <t>ECOSOFT MO36000 ECONNECT COMMERCIAL REVERSE OSMOSIS SYSTEM</t>
-  </si>
-  <si>
-    <t>КОМЕРЦІЙНА СИСТЕМА ЗВОРОТНОГО ОСМОСУ ECOSOFT MO36000 ECONNECT</t>
-  </si>
-  <si>
-    <t>КОММЕРЧЕСКАЯ СИСТЕМА ОБРАТНОГО ОСМОСА ECOSOFT MO36000 ECONNECT</t>
-  </si>
-  <si>
-    <t>M36VCOTFWEUN</t>
-  </si>
-  <si>
-    <t>MO6500BWSS</t>
-  </si>
-  <si>
-    <t>ECOSOFT MO6500BWSS COMMERCIAL REVERSE OSMOSIS SYSTEM</t>
-  </si>
-  <si>
-    <t>КОМЕРЦІЙНА СИСТЕМА ЗВОРОТНОГО ОСМОСУ ECOSOFT MO6500BWSS</t>
-  </si>
-  <si>
-    <t>КОММЕРЧЕСКАЯ СИСТЕМА ОБРАТНОГО ОСМОСА ECOSOFT MO6500BWSS</t>
-  </si>
-  <si>
-    <t>MO11STXL</t>
-  </si>
-  <si>
-    <t>3 × 380…415</t>
-  </si>
-  <si>
-    <t>ECOSOFT MO11STXL INDUSTRIAL REVERSE OSMOSIS SYSTEM</t>
-  </si>
-  <si>
-    <t>ПРОМИСЛОВА СИСТЕМА ЗВОРОТНОГО ОСМОСУ ECOSOFT MO11STXL</t>
-  </si>
-  <si>
-    <t>ПРОМЫШЛЕННАЯ СИСТЕМА ОБРАТНОГО ОСМОСА ECOSOFT MO11STXL</t>
-  </si>
-  <si>
-    <t>MO21STXL</t>
-  </si>
-  <si>
-    <t>ECOSOFT MO21STXL INDUSTRIAL REVERSE OSMOSIS SYSTEM</t>
-  </si>
-  <si>
-    <t>ПРОМИСЛОВА СИСТЕМА ЗВОРОТНОГО ОСМОСУ ECOSOFT MO21STXL</t>
-  </si>
-  <si>
-    <t>ПРОМЫШЛЕННАЯ СИСТЕМА ОБРАТНОГО ОСМОСА ECOSOFT MO21STXL</t>
-  </si>
-  <si>
-    <t>MO31STXL</t>
-  </si>
-  <si>
-    <t>ECOSOFT MO31STXL INDUSTRIAL REVERSE OSMOSIS SYSTEM</t>
-  </si>
-  <si>
-    <t>ПРОМИСЛОВА СИСТЕМА ЗВОРОТНОГО ОСМОСУ ECOSOFT MO31STXL</t>
-  </si>
-  <si>
-    <t>ПРОМЫШЛЕННАЯ СИСТЕМА ОБРАТНОГО ОСМОСА ECOSOFT MO31STXL</t>
-  </si>
-  <si>
-    <t>MO41STXL</t>
-  </si>
-  <si>
-    <t>ECOSOFT MO41STXL INDUSTRIAL REVERSE OSMOSIS SYSTEM</t>
-  </si>
-  <si>
-    <t>ПРОМИСЛОВА СИСТЕМА ЗВОРОТНОГО ОСМОСУ ECOSOFT MO41STXL</t>
-  </si>
-  <si>
-    <t>ПРОМЫШЛЕННАЯ СИСТЕМА ОБРАТНОГО ОСМОСА ECOSOFT MO41STXL</t>
-  </si>
-  <si>
-    <t>MO42STXL</t>
-  </si>
-  <si>
-    <t>ECOSOFT MO42STXL INDUSTRIAL REVERSE OSMOSIS SYSTEM</t>
-  </si>
-  <si>
-    <t>ПРОМИСЛОВА СИСТЕМА ЗВОРОТНОГО ОСМОСУ ECOSOFT MO42STXL</t>
-  </si>
-  <si>
-    <t>ПРОМЫШЛЕННАЯ СИСТЕМА ОБРАТНОГО ОСМОСА ECOSOFT MO42STXL</t>
-  </si>
-  <si>
-    <t>MO11XLWE0UN</t>
-  </si>
-  <si>
-    <t>MO1</t>
-  </si>
-  <si>
-    <t>ECOSOFT MO1 INDUSTRIAL REVERSE OSMOSIS SYSTEM</t>
-  </si>
-  <si>
-    <t>ПРОМИСЛОВА СИСТЕМА ЗВОРОТНОГО ОСМОСУ ECOSOFT MO1</t>
-  </si>
-  <si>
-    <t>ПРОМЫШЛЕННАЯ СИСТЕМА ОБРАТНОГО ОСМОСА ECOSOFT MO1</t>
-  </si>
-  <si>
-    <t>MO22XLWE0UN</t>
-  </si>
-  <si>
-    <t>MO2</t>
-  </si>
-  <si>
-    <t>ECOSOFT MO2 INDUSTRIAL REVERSE OSMOSIS SYSTEM</t>
-  </si>
-  <si>
-    <t>ПРОМИСЛОВА СИСТЕМА ЗВОРОТНОГО ОСМОСУ ECOSOFT MO2</t>
-  </si>
-  <si>
-    <t>ПРОМЫШЛЕННАЯ СИСТЕМА ОБРАТНОГО ОСМОСА ECOSOFT MO2</t>
-  </si>
-  <si>
-    <t>MO33XLWE0UN</t>
-  </si>
-  <si>
-    <t>MO3</t>
-  </si>
-  <si>
-    <t>ECOSOFT MO3 INDUSTRIAL REVERSE OSMOSIS SYSTEM</t>
-  </si>
-  <si>
-    <t>ПРОМИСЛОВА СИСТЕМА ЗВОРОТНОГО ОСМОСУ ECOSOFT MO3</t>
-  </si>
-  <si>
-    <t>ПРОМЫШЛЕННАЯ СИСТЕМА ОБРАТНОГО ОСМОСА ECOSOFT MO3</t>
-  </si>
-  <si>
-    <t>MO42XLWE0UN</t>
-  </si>
-  <si>
-    <t>MO4</t>
-  </si>
-  <si>
-    <t>ECOSOFT MO4 INDUSTRIAL REVERSE OSMOSIS SYSTEM</t>
-  </si>
-  <si>
-    <t>ПРОМИСЛОВА СИСТЕМА ЗВОРОТНОГО ОСМОСУ ECOSOFT MO4</t>
-  </si>
-  <si>
-    <t>ПРОМЫШЛЕННАЯ СИСТЕМА ОБРАТНОГО ОСМОСА ECOSOFT MO4</t>
-  </si>
-  <si>
-    <t>MO63XLWE0UN</t>
-  </si>
-  <si>
-    <t>MO6</t>
-  </si>
-  <si>
-    <t>ECOSOFT MO6 INDUSTRIAL REVERSE OSMOSIS SYSTEM</t>
-  </si>
-  <si>
-    <t>ПРОМИСЛОВА СИСТЕМА ЗВОРОТНОГО ОСМОСУ ECOSOFT MO6</t>
-  </si>
-  <si>
-    <t>ПРОМЫШЛЕННАЯ СИСТЕМА ОБРАТНОГО ОСМОСА ECOSOFT MO6</t>
-  </si>
-  <si>
-    <t>MO93XLWE0UN</t>
-  </si>
-  <si>
-    <t>MO9</t>
-  </si>
-  <si>
-    <t>ECOSOFT MO9 INDUSTRIAL REVERSE OSMOSIS SYSTEM</t>
-  </si>
-  <si>
-    <t>ПРОМИСЛОВА СИСТЕМА ЗВОРОТНОГО ОСМОСУ ECOSOFT MO9</t>
-  </si>
-  <si>
-    <t>ПРОМЫШЛЕННАЯ СИСТЕМА ОБРАТНОГО ОСМОСА ECOSOFT MO9</t>
-  </si>
-  <si>
-    <t>MO12XLWE0UN</t>
-  </si>
-  <si>
-    <t>MO12</t>
-  </si>
-  <si>
-    <t>ECOSOFT MO12 INDUSTRIAL REVERSE OSMOSIS SYSTEM</t>
-  </si>
-  <si>
-    <t>ПРОМИСЛОВА СИСТЕМА ЗВОРОТНОГО ОСМОСУ ECOSOFT MO12</t>
-  </si>
-  <si>
-    <t>ПРОМЫШЛЕННАЯ СИСТЕМА ОБРАТНОГО ОСМОСА ECOSOFT MO12</t>
-  </si>
-  <si>
-    <t>MO16XLWE0UN</t>
-  </si>
-  <si>
-    <t>MO16</t>
-  </si>
-  <si>
-    <t>ECOSOFT MO16 INDUSTRIAL REVERSE OSMOSIS SYSTEM</t>
-  </si>
-  <si>
-    <t>ПРОМИСЛОВА СИСТЕМА ЗВОРОТНОГО ОСМОСУ ECOSOFT MO16</t>
-  </si>
-  <si>
-    <t>ПРОМЫШЛЕННАЯ СИСТЕМА ОБРАТНОГО ОСМОСА ECOSOFT MO16</t>
-  </si>
-  <si>
-    <t>MO20XLWE0UN</t>
-  </si>
-  <si>
-    <t>MO20</t>
-  </si>
-  <si>
-    <t>ECOSOFT MO20 INDUSTRIAL REVERSE OSMOSIS SYSTEM</t>
-  </si>
-  <si>
-    <t>ПРОМИСЛОВА СИСТЕМА ЗВОРОТНОГО ОСМОСУ ECOSOFT MO20</t>
-  </si>
-  <si>
-    <t>ПРОМЫШЛЕННАЯ СИСТЕМА ОБРАТНОГО ОСМОСА ECOSOFT MO20</t>
-  </si>
-  <si>
-    <t>MO24XLWE0UN</t>
-  </si>
-  <si>
-    <t>MO24</t>
-  </si>
-  <si>
-    <t>ECOSOFT MO24 INDUSTRIAL REVERSE OSMOSIS SYSTEM</t>
-  </si>
-  <si>
-    <t>ПРОМИСЛОВА СИСТЕМА ЗВОРОТНОГО ОСМОСУ ECOSOFT MO24</t>
-  </si>
-  <si>
-    <t>ПРОМЫШЛЕННАЯ СИСТЕМА ОБРАТНОГО ОСМОСА ECOSOFT MO24</t>
-  </si>
-  <si>
-    <t>MO30XLWE0UN</t>
-  </si>
-  <si>
-    <t>MO30</t>
-  </si>
-  <si>
-    <t>ECOSOFT MO30 INDUSTRIAL REVERSE OSMOSIS SYSTEM</t>
-  </si>
-  <si>
-    <t>ПРОМИСЛОВА СИСТЕМА ЗВОРОТНОГО ОСМОСУ ECOSOFT MO30</t>
-  </si>
-  <si>
-    <t>ПРОМЫШЛЕННАЯ СИСТЕМА ОБРАТНОГО ОСМОСА ECOSOFT MO30</t>
-  </si>
-  <si>
-    <t>MO36XLWE0UN</t>
-  </si>
-  <si>
-    <t>MO36</t>
-  </si>
-  <si>
-    <t>ECOSOFT MO36 INDUSTRIAL REVERSE OSMOSIS SYSTEM</t>
-  </si>
-  <si>
-    <t>ПРОМИСЛОВА СИСТЕМА ЗВОРОТНОГО ОСМОСУ ECOSOFT MO36</t>
-  </si>
-  <si>
-    <t>ПРОМЫШЛЕННАЯ СИСТЕМА ОБРАТНОГО ОСМОСА ECOSOFT MO36</t>
-  </si>
-  <si>
-    <t>MO48XLWE0UN</t>
-  </si>
-  <si>
-    <t>MO48</t>
-  </si>
-  <si>
-    <t>ECOSOFT MO48 INDUSTRIAL REVERSE OSMOSIS SYSTEM</t>
-  </si>
-  <si>
-    <t>ПРОМИСЛОВА СИСТЕМА ЗВОРОТНОГО ОСМОСУ ECOSOFT MO48</t>
-  </si>
-  <si>
-    <t>ПРОМЫШЛЕННАЯ СИСТЕМА ОБРАТНОГО ОСМОСА ECOSOFT MO48</t>
-  </si>
-  <si>
-    <t>M36VCOTFWE0UNSS</t>
-  </si>
-  <si>
-    <t>MO33CONWE</t>
-  </si>
-  <si>
-    <t>MO3 Econnect</t>
-  </si>
-  <si>
-    <t>ECOSOFT MO3 ECONNECT INDUSTRIAL REVERSE OSMOSIS SYSTEM</t>
-  </si>
-  <si>
-    <t>ПРОМИСЛОВА СИСТЕМА ЗВОРОТНОГО ОСМОСУ ECOSOFT MO3 ECONNECT</t>
-  </si>
-  <si>
-    <t>ПРОМЫШЛЕННАЯ СИСТЕМА ОБРАТНОГО ОСМОСА ECOSOFT MO3 ECONNECT</t>
-  </si>
-  <si>
-    <t>MO33XLEWSS0UN</t>
-  </si>
-  <si>
-    <t>MO93XLEWSS0UN</t>
-  </si>
-  <si>
-    <t>MO1TI5</t>
-  </si>
-  <si>
-    <t>MO2TI5</t>
-  </si>
-  <si>
-    <t>MO3TI5</t>
-  </si>
-  <si>
-    <t>MO4TI5</t>
-  </si>
-  <si>
-    <t>MO6TI5</t>
-  </si>
-  <si>
-    <t>MO9TI5</t>
-  </si>
-  <si>
-    <t>MO1TISIM</t>
-  </si>
-  <si>
-    <t>MO2TISIM</t>
-  </si>
-  <si>
-    <t>MO3TISIM</t>
-  </si>
-  <si>
-    <t>MO4TISIM</t>
-  </si>
-  <si>
-    <t>MO6TISIM</t>
-  </si>
-  <si>
-    <t>MO9TISIM</t>
-  </si>
-  <si>
-    <t>ROBUST1500</t>
-  </si>
-  <si>
-    <t>RObust 1500</t>
-  </si>
-  <si>
-    <t>ECOSOFT ROBUST 1500 REVERSE OSMOSIS FILTER</t>
-  </si>
-  <si>
-    <t>ФІЛЬТР ЗВОРОТНОГО ОСМОСУ ECOSOFT ROBUST 1500</t>
-  </si>
-  <si>
-    <t>ФИЛЬТР ОБРАТНОГО ОСМОСА ECOSOFT ROBUST 1500</t>
-  </si>
-  <si>
-    <t>ROBUST1500EC</t>
-  </si>
-  <si>
-    <t>RObust 1500 Econnect</t>
-  </si>
-  <si>
-    <t>ECOSOFT ROBUST 1500 ECONNECT REVERSE OSMOSIS FILTER</t>
-  </si>
-  <si>
-    <t>ФІЛЬТР ЗВОРОТНОГО ОСМОСУ ECOSOFT ROBUST 1500 ECONNECT</t>
-  </si>
-  <si>
-    <t>ФИЛЬТР ОБРАТНОГО ОСМОСА ECOSOFT ROBUST 1500 ECONNECT</t>
-  </si>
-  <si>
-    <t>ROBUST1500ECO</t>
-  </si>
-  <si>
-    <t>RObust 1500 Eco</t>
-  </si>
-  <si>
-    <t>ECOSOFT ROBUST 1500 ECO REVERSE OSMOSIS FILTER</t>
-  </si>
-  <si>
-    <t>ФІЛЬТР ЗВОРОТНОГО ОСМОСУ ECOSOFT ROBUST 1500 ECO</t>
-  </si>
-  <si>
-    <t>ФИЛЬТР ОБРАТНОГО ОСМОСА ECOSOFT ROBUST 1500 ECO</t>
-  </si>
-  <si>
-    <t>ROBUSTPROB</t>
-  </si>
-  <si>
-    <t>RObust PRO</t>
-  </si>
-  <si>
-    <t>ECOSOFT ROBUST PRO REVERSE OSMOSIS FILTER</t>
-  </si>
-  <si>
-    <t>ФІЛЬТР ЗВОРОТНОГО ОСМОСУ ECOSOFT ROBUST PRO</t>
-  </si>
-  <si>
-    <t>ФИЛЬТР ОБРАТНОГО ОСМОСА ECOSOFT ROBUST PRO</t>
-  </si>
-  <si>
-    <t>ROBUSTPROBEC</t>
-  </si>
-  <si>
-    <t>RObust PRO Econnect</t>
-  </si>
-  <si>
-    <t>ECOSOFT ROBUST PRO ECONNECT REVERSE OSMOSIS FILTER</t>
-  </si>
-  <si>
-    <t>ФІЛЬТР ЗВОРОТНОГО ОСМОСУ ECOSOFT ROBUST PRO ECONNECT</t>
-  </si>
-  <si>
-    <t>ФИЛЬТР ОБРАТНОГО ОСМОСА ECOSOFT ROBUST PRO ECONNECT</t>
-  </si>
-  <si>
-    <t>ROBUST3000</t>
-  </si>
-  <si>
-    <t>RObust 3000</t>
-  </si>
-  <si>
-    <t>ECOSOFT ROBUST 3000 REVERSE OSMOSIS FILTER</t>
-  </si>
-  <si>
-    <t>ФІЛЬТР ЗВОРОТНОГО ОСМОСУ ECOSOFT ROBUST 3000</t>
-  </si>
-  <si>
-    <t>ФИЛЬТР ОБРАТНОГО ОСМОСА ECOSOFT ROBUST 3000</t>
-  </si>
-  <si>
-    <t>ROBUST3000EC</t>
-  </si>
-  <si>
-    <t>RObust 3000 Econnect</t>
-  </si>
-  <si>
-    <t>ECOSOFT ROBUST 3000 ECONNECT REVERSE OSMOSIS FILTER</t>
-  </si>
-  <si>
-    <t>ФІЛЬТР ЗВОРОТНОГО ОСМОСУ ECOSOFT ROBUST 3000 ECONNECT</t>
-  </si>
-  <si>
-    <t>ФИЛЬТР ОБРАТНОГО ОСМОСА ECOSOFT ROBUST 3000 ECONNECT</t>
+    <t>*</t>
+  </si>
+  <si>
+    <t>MO20000TP5</t>
+  </si>
+  <si>
+    <t>MO30000TP5</t>
+  </si>
+  <si>
+    <t>MO20000</t>
+  </si>
+  <si>
+    <t>MO30000</t>
+  </si>
+  <si>
+    <t>MO36000TP5US</t>
+  </si>
+  <si>
+    <t>CROS14400</t>
+  </si>
+  <si>
+    <t>1 x 220-240</t>
+  </si>
+  <si>
+    <t>BRIO COMMERCIAL 6x4-INCH MEMBRANES RO SYSTEM</t>
+  </si>
+  <si>
+    <t>BOX QTY</t>
+  </si>
+  <si>
+    <t>BOX WEIGHT LBS</t>
+  </si>
+  <si>
+    <t>21.85 x 17.32 x 25.78</t>
+  </si>
+  <si>
+    <t>BOX DIM.(IN)</t>
+  </si>
+  <si>
+    <t>ROBUST3000DTW</t>
+  </si>
+  <si>
+    <t>UROBUST1000</t>
+  </si>
+  <si>
+    <t>BRIO ROBUST 1000GPD RO SYSTEM</t>
+  </si>
+  <si>
+    <t>40 x 28 x 76</t>
+  </si>
+  <si>
+    <t>1 x 120</t>
+  </si>
+  <si>
+    <t>ROBUST1000</t>
+  </si>
+  <si>
+    <t>ECOSOFT МО20000 4" reverse osmosis system</t>
+  </si>
+  <si>
+    <t>ECOSOFT МО30000 4" reverse osmosis system</t>
+  </si>
+  <si>
+    <t>Cистема зворотного осмосу Ecosoft МО20000</t>
+  </si>
+  <si>
+    <t>Cистема зворотного осмосу Ecosoft МО30000</t>
+  </si>
+  <si>
+    <t>ROBUST1000STD</t>
+  </si>
+  <si>
+    <t>ROBUST3000ENUK</t>
+  </si>
+  <si>
+    <t>ROBUSTENUK</t>
+  </si>
+  <si>
+    <t>220-240</t>
   </si>
 </sst>
 </file>
@@ -789,6 +852,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1088,26 +1155,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10768CB5-F94B-4828-92F3-3FFD699AA8DE}">
-  <dimension ref="A1:I65"/>
+  <dimension ref="A1:L74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="59" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="64.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="66.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="64.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="66.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1135,16 +1204,25 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="D2" s="1">
         <v>50</v>
@@ -1156,24 +1234,24 @@
         <v>4.5</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="D3" s="1">
         <v>50</v>
@@ -1185,24 +1263,24 @@
         <v>4.5</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1">
         <v>50</v>
@@ -1214,24 +1292,24 @@
         <v>4.5</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1">
         <v>50</v>
@@ -1243,24 +1321,24 @@
         <v>4.5</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="D6" s="1">
         <v>50</v>
@@ -1272,24 +1350,24 @@
         <v>4.5</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" s="1">
         <v>50</v>
@@ -1301,24 +1379,24 @@
         <v>4.5</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" s="1">
         <v>50</v>
@@ -1330,24 +1408,24 @@
         <v>4.5</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="1" t="s">
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="B9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9" s="1">
         <v>50</v>
@@ -1359,24 +1437,24 @@
         <v>4.5</v>
       </c>
       <c r="G9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="C10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10" s="1">
         <v>50</v>
@@ -1388,24 +1466,24 @@
         <v>4.5</v>
       </c>
       <c r="G10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I10" s="1" t="s">
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="B11" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11" s="1">
         <v>50</v>
@@ -1417,24 +1495,24 @@
         <v>4.5</v>
       </c>
       <c r="G11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="C12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D12" s="1">
         <v>50</v>
@@ -1446,24 +1524,24 @@
         <v>9</v>
       </c>
       <c r="G12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I12" s="1" t="s">
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="B13" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D13" s="1">
         <v>50</v>
@@ -1475,24 +1553,24 @@
         <v>9</v>
       </c>
       <c r="G13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="C14" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D14" s="1">
         <v>50</v>
@@ -1504,24 +1582,24 @@
         <v>9</v>
       </c>
       <c r="G14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="I14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I14" s="1" t="s">
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="B15" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D15" s="1">
         <v>50</v>
@@ -1533,24 +1611,24 @@
         <v>9</v>
       </c>
       <c r="G15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="I15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="C16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D16" s="1">
         <v>50</v>
@@ -1562,24 +1640,24 @@
         <v>4.5</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I16" s="1" t="s">
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="B17" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D17" s="1">
         <v>50</v>
@@ -1591,24 +1669,24 @@
         <v>4.5</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I17" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="C18" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D18" s="1">
         <v>50</v>
@@ -1620,24 +1698,24 @@
         <v>4.5</v>
       </c>
       <c r="G18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="I18" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I18" s="1" t="s">
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="B19" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D19" s="1">
         <v>50</v>
@@ -1649,24 +1727,24 @@
         <v>4.5</v>
       </c>
       <c r="G19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="I19" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I19" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="C20" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D20" s="1">
         <v>50</v>
@@ -1678,24 +1756,24 @@
         <v>9</v>
       </c>
       <c r="G20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="I20" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I20" s="1" t="s">
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="B21" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D21" s="1">
         <v>50</v>
@@ -1707,24 +1785,24 @@
         <v>9</v>
       </c>
       <c r="G21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="I21" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I21" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="C22" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D22" s="1">
         <v>50</v>
@@ -1736,24 +1814,24 @@
         <v>9</v>
       </c>
       <c r="G22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="I22" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="I22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="B23" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D23" s="1">
         <v>50</v>
@@ -1765,24 +1843,24 @@
         <v>9</v>
       </c>
       <c r="G23" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="I23" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="I23" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D24" s="1">
         <v>50</v>
@@ -1794,24 +1872,24 @@
         <v>11</v>
       </c>
       <c r="G24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="I24" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="I24" s="1" t="s">
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+      <c r="B25" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="D25" s="1">
         <v>50</v>
@@ -1823,24 +1901,24 @@
         <v>6</v>
       </c>
       <c r="G25" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="I25" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="I25" s="1" t="s">
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="B26" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D26" s="1">
         <v>50</v>
@@ -1852,24 +1930,24 @@
         <v>6</v>
       </c>
       <c r="G26" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="I26" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="I26" s="1" t="s">
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="B27" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D27" s="1">
         <v>50</v>
@@ -1881,24 +1959,24 @@
         <v>8</v>
       </c>
       <c r="G27" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H27" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="I27" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="I27" s="1" t="s">
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="B28" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D28" s="1">
         <v>50</v>
@@ -1910,24 +1988,24 @@
         <v>8</v>
       </c>
       <c r="G28" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H28" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="I28" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="I28" s="1" t="s">
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="B29" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D29" s="1">
         <v>50</v>
@@ -1939,24 +2017,24 @@
         <v>8</v>
       </c>
       <c r="G29" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H29" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="I29" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I29" s="1" t="s">
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="C30" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D30" s="1">
         <v>50</v>
@@ -1968,24 +2046,24 @@
         <v>6</v>
       </c>
       <c r="G30" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H30" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="I30" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="I30" s="1" t="s">
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="C31" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D31" s="1">
         <v>50</v>
@@ -1997,24 +2075,24 @@
         <v>6</v>
       </c>
       <c r="G31" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H31" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="I31" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="I31" s="1" t="s">
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="C32" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D32" s="1">
         <v>50</v>
@@ -2026,24 +2104,24 @@
         <v>8</v>
       </c>
       <c r="G32" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H32" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="I32" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="I32" s="1" t="s">
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="C33" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D33" s="1">
         <v>50</v>
@@ -2055,24 +2133,24 @@
         <v>8</v>
       </c>
       <c r="G33" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H33" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="I33" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="I33" s="1" t="s">
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="C34" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D34" s="1">
         <v>50</v>
@@ -2084,24 +2162,24 @@
         <v>15</v>
       </c>
       <c r="G34" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H34" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="I34" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="I34" s="1" t="s">
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="C35" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D35" s="1">
         <v>50</v>
@@ -2113,24 +2191,24 @@
         <v>15</v>
       </c>
       <c r="G35" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H35" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="H35" s="1" t="s">
+      <c r="I35" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="I35" s="1" t="s">
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="C36" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D36" s="1">
         <v>50</v>
@@ -2142,24 +2220,24 @@
         <v>22</v>
       </c>
       <c r="G36" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H36" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="I36" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="I36" s="1" t="s">
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>133</v>
-      </c>
       <c r="C37" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D37" s="1">
         <v>50</v>
@@ -2171,24 +2249,24 @@
         <v>22</v>
       </c>
       <c r="G37" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H37" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="H37" s="1" t="s">
+      <c r="I37" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="I37" s="1" t="s">
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="C38" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D38" s="1">
         <v>50</v>
@@ -2200,24 +2278,24 @@
         <v>22</v>
       </c>
       <c r="G38" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H38" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="H38" s="1" t="s">
+      <c r="I38" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="I38" s="1" t="s">
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="C39" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D39" s="1">
         <v>50</v>
@@ -2229,24 +2307,24 @@
         <v>30</v>
       </c>
       <c r="G39" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H39" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="H39" s="1" t="s">
+      <c r="I39" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="I39" s="1" t="s">
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="C40" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D40" s="1">
         <v>50</v>
@@ -2258,24 +2336,24 @@
         <v>44</v>
       </c>
       <c r="G40" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H40" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="H40" s="1" t="s">
+      <c r="I40" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="I40" s="1" t="s">
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>153</v>
-      </c>
       <c r="C41" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D41" s="1">
         <v>50</v>
@@ -2287,24 +2365,24 @@
         <v>44</v>
       </c>
       <c r="G41" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H41" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="H41" s="1" t="s">
+      <c r="I41" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="I41" s="1" t="s">
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="C42" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D42" s="1">
         <v>50</v>
@@ -2316,24 +2394,24 @@
         <v>44</v>
       </c>
       <c r="G42" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H42" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="H42" s="1" t="s">
+      <c r="I42" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="I42" s="1" t="s">
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
-        <v>162</v>
-      </c>
       <c r="B43" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D43" s="1">
         <v>50</v>
@@ -2345,24 +2423,24 @@
         <v>9</v>
       </c>
       <c r="G43" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H43" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H43" s="1" t="s">
+      <c r="I43" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="I43" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>164</v>
-      </c>
       <c r="C44" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D44" s="1">
         <v>50</v>
@@ -2374,24 +2452,24 @@
         <v>8</v>
       </c>
       <c r="G44" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H44" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="H44" s="1" t="s">
+      <c r="I44" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="I44" s="1" t="s">
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="3" t="s">
-        <v>168</v>
-      </c>
       <c r="B45" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D45" s="3">
         <v>50</v>
@@ -2403,24 +2481,24 @@
         <v>8</v>
       </c>
       <c r="G45" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H45" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="H45" s="3" t="s">
+      <c r="I45" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D46" s="3">
         <v>50</v>
@@ -2432,24 +2510,24 @@
         <v>15</v>
       </c>
       <c r="G46" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H46" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="H46" s="3" t="s">
+      <c r="I46" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D47" s="3">
         <v>50</v>
@@ -2461,24 +2539,24 @@
         <v>6</v>
       </c>
       <c r="G47" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H47" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="H47" s="3" t="s">
+      <c r="I47" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D48" s="3">
         <v>50</v>
@@ -2490,24 +2568,24 @@
         <v>6</v>
       </c>
       <c r="G48" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H48" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="H48" s="3" t="s">
+      <c r="I48" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D49" s="3">
         <v>50</v>
@@ -2519,24 +2597,24 @@
         <v>8</v>
       </c>
       <c r="G49" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H49" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="H49" s="3" t="s">
+      <c r="I49" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D50" s="3">
         <v>50</v>
@@ -2548,24 +2626,24 @@
         <v>8</v>
       </c>
       <c r="G50" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="H50" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="H50" s="3" t="s">
+      <c r="I50" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="I50" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D51" s="3">
         <v>50</v>
@@ -2577,24 +2655,24 @@
         <v>15</v>
       </c>
       <c r="G51" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="H51" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="H51" s="3" t="s">
+      <c r="I51" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="I51" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D52" s="3">
         <v>50</v>
@@ -2606,24 +2684,24 @@
         <v>15</v>
       </c>
       <c r="G52" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H52" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="H52" s="3" t="s">
+      <c r="I52" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D53" s="3">
         <v>50</v>
@@ -2635,24 +2713,24 @@
         <v>6</v>
       </c>
       <c r="G53" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H53" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="H53" s="3" t="s">
+      <c r="I53" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="I53" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D54" s="3">
         <v>50</v>
@@ -2664,24 +2742,24 @@
         <v>6</v>
       </c>
       <c r="G54" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H54" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="H54" s="3" t="s">
+      <c r="I54" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D55" s="3">
         <v>50</v>
@@ -2693,24 +2771,24 @@
         <v>8</v>
       </c>
       <c r="G55" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H55" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="H55" s="3" t="s">
+      <c r="I55" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="I55" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D56" s="3">
         <v>50</v>
@@ -2722,24 +2800,24 @@
         <v>8</v>
       </c>
       <c r="G56" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="H56" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="H56" s="3" t="s">
+      <c r="I56" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="I56" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D57" s="1">
         <v>50</v>
@@ -2751,24 +2829,24 @@
         <v>15</v>
       </c>
       <c r="G57" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H57" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="H57" s="1" t="s">
+      <c r="I57" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="I57" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D58" s="1">
         <v>50</v>
@@ -2780,24 +2858,24 @@
         <v>15</v>
       </c>
       <c r="G58" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H58" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="H58" s="1" t="s">
+      <c r="I58" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="I58" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>182</v>
+        <v>236</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>183</v>
+        <v>236</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>11</v>
+        <v>237</v>
       </c>
       <c r="D59" s="1">
         <v>50</v>
@@ -2808,25 +2886,19 @@
       <c r="F59" s="1">
         <v>3</v>
       </c>
-      <c r="G59" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>187</v>
+        <v>229</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>188</v>
+        <v>229</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>11</v>
+        <v>237</v>
       </c>
       <c r="D60" s="1">
         <v>50</v>
@@ -2837,54 +2909,42 @@
       <c r="F60" s="1">
         <v>3</v>
       </c>
-      <c r="G60" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>192</v>
+        <v>234</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>193</v>
+        <v>234</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>11</v>
+        <v>237</v>
       </c>
       <c r="D61" s="1">
         <v>50</v>
       </c>
       <c r="E61" s="1">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="F61" s="1">
-        <v>5</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D62" s="1">
         <v>50</v>
@@ -2896,24 +2956,24 @@
         <v>3</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D63" s="1">
         <v>50</v>
@@ -2925,74 +2985,312 @@
         <v>3</v>
       </c>
       <c r="G63" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D64" s="1">
+        <v>50</v>
+      </c>
+      <c r="E64" s="1">
+        <v>120</v>
+      </c>
+      <c r="F64" s="1">
+        <v>5</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D65" s="1">
+        <v>50</v>
+      </c>
+      <c r="E65" s="1">
+        <v>72</v>
+      </c>
+      <c r="F65" s="1">
+        <v>3</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D66" s="1">
+        <v>50</v>
+      </c>
+      <c r="E66" s="1">
+        <v>72</v>
+      </c>
+      <c r="F66" s="1">
+        <v>3</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D67" s="1">
+        <v>50</v>
+      </c>
+      <c r="E67" s="1">
+        <v>96</v>
+      </c>
+      <c r="F67" s="1">
+        <v>4</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="H67" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="H63" s="1" t="s">
+      <c r="I67" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="I63" s="1" t="s">
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
+      <c r="B68" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D68" s="1">
+        <v>50</v>
+      </c>
+      <c r="E68" s="1">
+        <v>96</v>
+      </c>
+      <c r="F68" s="1">
+        <v>4</v>
+      </c>
+      <c r="G68" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="H68" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C64" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D64" s="1">
-        <v>50</v>
-      </c>
-      <c r="E64" s="1">
+      <c r="I68" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D69" s="1">
+        <v>50</v>
+      </c>
+      <c r="E69" s="1">
         <v>96</v>
       </c>
-      <c r="F64" s="1">
+      <c r="F69" s="1">
         <v>4</v>
       </c>
-      <c r="G64" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="I64" s="1" t="s">
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D70" s="1">
+        <v>50</v>
+      </c>
+      <c r="E70" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="F70" s="1">
+        <v>9</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="I70" s="1"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D71" s="1">
+        <v>50</v>
+      </c>
+      <c r="E71" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="F71" s="1">
+        <v>9</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="I71" s="1"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D72" s="1">
+        <v>60</v>
+      </c>
+      <c r="E72" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="F72" s="1">
+        <v>9</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72">
+        <v>385</v>
+      </c>
+      <c r="L72" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D73" s="1">
+        <v>60</v>
+      </c>
+      <c r="E73" s="1">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="F73" s="1">
+        <v>4.17</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73">
+        <v>1</v>
+      </c>
+      <c r="K73">
+        <v>72.75</v>
+      </c>
+      <c r="L73" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
         <v>211</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D65" s="1">
-        <v>50</v>
-      </c>
-      <c r="E65" s="1">
-        <v>96</v>
-      </c>
-      <c r="F65" s="1">
-        <v>4</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>216</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>